--- a/one up/普物實驗/Lab9 陽氏彈性係數/E24146107_王翊權_預報9_表格.xlsx
+++ b/one up/普物實驗/Lab9 陽氏彈性係數/E24146107_王翊權_預報9_表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\one up\普物實驗\Lab9 陽氏彈性係數\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C429FC05-AFBA-435B-AA23-E0DD08CF0E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A71031-E225-4852-ACDB-8983FEE3FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{A94FDA95-F707-4D7D-A108-183DD0CA3694}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" activeTab="1" xr2:uid="{A94FDA95-F707-4D7D-A108-183DD0CA3694}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
   <si>
     <t>l_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>平均伸長量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>載重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,6 +185,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -174,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,13 +266,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,17 +351,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,57 +741,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD9D058-3919-4C94-8D00-4C5D95AF84E9}">
   <dimension ref="B5:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -649,11 +818,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1"/>
@@ -664,12 +833,17 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <f>(B12/2)^2*PI()</f>
+        <v>8.0424771931898698E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3">
@@ -688,15 +862,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3">
+        <v>1.925</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
@@ -704,9 +888,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <f>AVERAGE(C15:G15)</f>
+        <v>1.9169999999999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -723,57 +912,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C50239-B743-4AEF-A9CF-9C182EB8C0BF}">
-  <dimension ref="B3:J18"/>
+  <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="7" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
@@ -793,177 +992,1160 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="K6">
+        <f>-AVERAGE(E6:J6)</f>
+        <v>-13.016666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>200</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K16" si="0">-AVERAGE(E7:J7)</f>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>400</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-7.5666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>600</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-4.916666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>800</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-2.1333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1000</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-0.7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1200</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="3">
+        <v>-2.8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-3.1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>-3.4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1400</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-5.7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-5.8</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-5.8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>-6.1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>5.8166666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1600</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3">
+        <v>-8.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-8.4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-8.4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-8.1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-8.4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>8.2833333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>1800</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3">
+        <v>-10.8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-11.1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-11.4</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>11.016666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2000</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3">
+        <v>-13.6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-13.6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-13.8</v>
+      </c>
+      <c r="J16" s="3">
+        <v>-13.8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>13.633333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="6">
+        <f>ABS($Q$21*(0.5*ATAN((E7-E6)/$R$21)))</f>
+        <v>9.6677673402305979E-3</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:I21" si="1">ABS($Q$21*(0.5*ATAN((F7-F6)/$R$21)))</f>
+        <v>1.2188818603645499E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1768686476255532E-2</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="J21" s="17">
+        <f>AVERAGE(D21:I21)</f>
+        <v>1.0998365618188094E-2</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="21">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="N21">
+        <v>89</v>
+      </c>
+      <c r="O21">
+        <v>980</v>
+      </c>
+      <c r="P21" s="2">
+        <v>8.0424771931898698E-4</v>
+      </c>
+      <c r="Q21">
+        <v>0.95849999999999991</v>
+      </c>
+      <c r="R21">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:I22" si="2">ABS($Q$21*(0.5*ATAN((E8-E7)/$R$21)))</f>
+        <v>1.1768686476255541E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1348536255830223E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0928368587073469E-2</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2608931993462963E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0928368587073469E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3869153294734598E-2</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" ref="J22:J30" si="3">AVERAGE(D22:I22)</f>
+        <v>1.190867419907171E-2</v>
+      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:I23" si="4">ABS($Q$21*(0.5*ATAN((E9-E8)/$R$21)))</f>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="4"/>
+        <v>9.2475363283150026E-3</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1138416766664216E-2</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="7"/>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:I24" si="5">ABS($Q$21*(0.5*ATAN((E10-E9)/$R$21)))</f>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2608931993462958E-2</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1698652285577449E-2</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="7"/>
+      <c r="M24">
+        <f>N21*O21/P21/M21</f>
+        <v>1807486215686.8635</v>
+      </c>
+      <c r="N24">
+        <f>M24/1000</f>
+        <v>1807486215.6868634</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:I25" si="6">ABS($Q$21*(0.5*ATAN((E11-E10)/$R$21)))</f>
+        <v>1.1768686476255539E-2</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0928368587073467E-2</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0928368587073467E-2</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0998388022655452E-2</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:I26" si="7">ABS($Q$21*(0.5*ATAN((E12-E11)/$R$21)))</f>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1208480366244639E-2</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:I27" si="8">ABS($Q$21*(0.5*ATAN((E13-E12)/$R$21)))</f>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="8"/>
+        <v>1.0928368587073467E-2</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="8"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1768686476255537E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1208474657611614E-2</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:I28" si="9">ABS($Q$21*(0.5*ATAN((E14-E13)/$R$21)))</f>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="9"/>
+        <v>1.0087983484179502E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="9"/>
+        <v>1.1348536255830224E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="9"/>
+        <v>1.0508184114850008E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="9"/>
+        <v>9.6677673402305996E-3</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="9"/>
+        <v>9.6677673402306048E-3</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0368101187065734E-2</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="6">
+        <f t="shared" ref="D29:I29" si="10">ABS($Q$21*(0.5*ATAN((E15-E14)/$R$21)))</f>
+        <v>1.1348536255830228E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1768686476255532E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1768686476255541E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2608931993462958E-2</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="3"/>
+        <v>1.148856565062129E-2</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="6">
+        <f t="shared" ref="D30:I30" si="11">ABS($Q$21*(0.5*ATAN((E16-E15)/$R$21)))</f>
+        <v>1.1768686476255532E-2</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="11"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="11"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="11"/>
+        <v>1.0087983484179502E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="11"/>
+        <v>1.2188818603645499E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="11"/>
+        <v>1.0087983484179502E-2</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.0998368203734494E-2</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="14">
+        <f>_xlfn.STDEV.P(J21:J30)</f>
+        <v>4.064570617533876E-4</v>
+      </c>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D32" s="9">
+        <f>D21</f>
+        <v>9.6677673402305979E-3</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ref="E32:I32" si="12">E21</f>
+        <v>1.2188818603645499E-2</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="12"/>
+        <v>1.1768686476255532E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="12"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="12"/>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="12"/>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D33" s="9">
+        <f>D22+D32</f>
+        <v>2.1436453816486137E-2</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" ref="E33:I40" si="13">E22+E32</f>
+        <v>2.3537354859475723E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="13"/>
+        <v>2.2697055063329002E-2</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="13"/>
+        <v>2.3537300580536429E-2</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="13"/>
+        <v>2.1436552701923475E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="13"/>
+        <v>2.4797521881808064E-2</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34" s="9">
+        <f t="shared" ref="D34:D40" si="14">D23+D33</f>
+        <v>3.3205140292741672E-2</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="13"/>
+        <v>3.5306041335731259E-2</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="13"/>
+        <v>3.4045591319159227E-2</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="13"/>
+        <v>3.4465669167609896E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="13"/>
+        <v>3.3205239178179011E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="13"/>
+        <v>3.4045058210123068E-2</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D35" s="9">
+        <f t="shared" si="14"/>
+        <v>4.4553676548571897E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.6654577591561483E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.5814277795414762E-2</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.581420542344012E-2</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.4973925654434546E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.6653990203586029E-2</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" s="9">
+        <f t="shared" si="14"/>
+        <v>5.6322363024827432E-2</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="13"/>
+        <v>5.758294617863495E-2</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="13"/>
+        <v>5.6742646382488229E-2</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="13"/>
+        <v>5.7162741679270344E-2</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="13"/>
+        <v>5.5482109769284554E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="13"/>
+        <v>5.7162174318436038E-2</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="9">
+        <f t="shared" si="14"/>
+        <v>6.7250731611900899E-2</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="13"/>
+        <v>6.8931482434465174E-2</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="13"/>
+        <v>6.8091182638318454E-2</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="13"/>
+        <v>6.8091110266343804E-2</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="13"/>
+        <v>6.6830646025114779E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="13"/>
+        <v>6.8510710574266262E-2</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="9">
+        <f t="shared" si="14"/>
+        <v>7.8599267867731124E-2</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="13"/>
+        <v>8.0280018690295399E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="13"/>
+        <v>7.9019551225391921E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="13"/>
+        <v>7.8599294381193813E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="13"/>
+        <v>7.8599332501370314E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="13"/>
+        <v>7.9859246830096486E-2</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="9">
+        <f t="shared" si="14"/>
+        <v>8.9527636454804591E-2</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0368002174474896E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0368087481222145E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="13"/>
+        <v>8.9107478496043821E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="13"/>
+        <v>8.8267099841600916E-2</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="13"/>
+        <v>8.9527014170327088E-2</v>
+      </c>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="9">
+        <f t="shared" si="14"/>
+        <v>0.10087617271063481</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10129637076154836</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10087627159607215</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10087616497229936</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10003578631785645</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10213594616379004</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="9">
+        <f>D30+D40</f>
+        <v>0.11264485918689035</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" ref="E41:I41" si="15">E30+E40</f>
+        <v>0.11222473934862183</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="15"/>
+        <v>0.11180464018314562</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="15"/>
+        <v>0.11096414845647885</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="15"/>
+        <v>0.11222460492150195</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="15"/>
+        <v>0.11222392964796954</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="54">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -972,42 +2154,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264D6B93-0060-4739-91A1-69F83895F5D7}">
-  <dimension ref="B3:K17"/>
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B3" sqref="B3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1026,14 +2208,14 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1043,11 +2225,11 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1057,11 +2239,11 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1071,11 +2253,11 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1085,11 +2267,11 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1099,11 +2281,11 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1113,11 +2295,11 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1127,11 +2309,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1141,11 +2323,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1155,11 +2337,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1169,30 +2351,18 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>

--- a/one up/普物實驗/Lab9 陽氏彈性係數/E24146107_王翊權_預報9_表格.xlsx
+++ b/one up/普物實驗/Lab9 陽氏彈性係數/E24146107_王翊權_預報9_表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\one up\普物實驗\Lab9 陽氏彈性係數\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A71031-E225-4852-ACDB-8983FEE3FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C88B11-474B-4CB7-8878-BB20D4762231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" activeTab="1" xr2:uid="{A94FDA95-F707-4D7D-A108-183DD0CA3694}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{A94FDA95-F707-4D7D-A108-183DD0CA3694}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>l_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,38 @@
   <si>
     <t>載重</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Delta l_{200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Delta l_{400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Delta l_{600}</t>
+  </si>
+  <si>
+    <t>\Delta l_{800}</t>
+  </si>
+  <si>
+    <t>\Delta l_{1000}</t>
+  </si>
+  <si>
+    <t>\Delta l_{1200}</t>
+  </si>
+  <si>
+    <t>\Delta l_{1400}</t>
+  </si>
+  <si>
+    <t>\Delta l_{1600}</t>
+  </si>
+  <si>
+    <t>\Delta l_{1800}</t>
+  </si>
+  <si>
+    <t>\Delta l_{2000}</t>
   </si>
 </sst>
 </file>
@@ -280,19 +312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -325,11 +344,22 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -369,41 +399,41 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,6 +450,1107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表2!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表2!$J$34:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0998365618188094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2907039817259806E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4045456583924029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5744108869501469E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6742496892156935E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.795097725840156E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9159451916013174E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9527553103078916E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1010161187537002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1120144869574347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1391-4C13-BEF8-4AC571152590}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670738192"/>
+        <c:axId val="672844896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670738192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>載重</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672844896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="672844896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>金屬現伸長量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670738192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1165267</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335644</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E56673-93D1-6165-E203-41B9A3B072A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -742,48 +1873,48 @@
   <dimension ref="B5:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
       <c r="C9" s="3">
         <v>0.32</v>
       </c>
@@ -809,7 +1940,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -818,7 +1949,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +1964,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -842,7 +1973,7 @@
         <v>8.0424771931898698E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -862,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
       <c r="C15" s="3">
         <v>1.925</v>
@@ -880,7 +2011,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
@@ -888,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <f>AVERAGE(C15:G15)</f>
         <v>1.9169999999999998</v>
@@ -914,65 +2045,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C50239-B743-4AEF-A9CF-9C182EB8C0BF}">
   <dimension ref="A3:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
@@ -992,13 +2126,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="16">
+        <v>500</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="3">
         <v>13.2</v>
       </c>
@@ -1022,13 +2158,15 @@
         <v>-13.016666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
         <v>200</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="16">
+        <v>700</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3">
         <v>10.9</v>
       </c>
@@ -1052,13 +2190,15 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
         <v>400</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="16">
+        <v>900</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3">
         <v>8.1</v>
       </c>
@@ -1082,13 +2222,15 @@
         <v>-7.5666666666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
         <v>600</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="16">
+        <v>1100</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3">
         <v>5.3</v>
       </c>
@@ -1112,13 +2254,15 @@
         <v>-4.916666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
         <v>800</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="16">
+        <v>1300</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3">
         <v>2.6</v>
       </c>
@@ -1142,13 +2286,15 @@
         <v>-2.1333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <v>1000</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="16">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3">
         <v>-0.2</v>
       </c>
@@ -1172,13 +2318,15 @@
         <v>0.48333333333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
         <v>1200</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="16">
+        <v>1700</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3">
         <v>-2.8</v>
       </c>
@@ -1202,13 +2350,15 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
         <v>1400</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="16">
+        <v>1900</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="3">
         <v>-5.5</v>
       </c>
@@ -1232,13 +2382,15 @@
         <v>5.8166666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
         <v>1600</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="16">
+        <v>2100</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3">
         <v>-8.1</v>
       </c>
@@ -1262,13 +2414,15 @@
         <v>8.2833333333333332</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
         <v>1800</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="16">
+        <v>2300</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="3">
         <v>-10.8</v>
       </c>
@@ -1292,13 +2446,15 @@
         <v>11.016666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
         <v>2000</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="16">
+        <v>2500</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3">
         <v>-13.6</v>
       </c>
@@ -1322,41 +2478,41 @@
         <v>13.633333333333333</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1375,8 +2531,8 @@
       <c r="I20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="11"/>
       <c r="M20" t="s">
         <v>31</v>
       </c>
@@ -1396,11 +2552,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="10"/>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="6">
         <f>ABS($Q$21*(0.5*ATAN((E7-E6)/$R$21)))</f>
         <v>9.6677673402305979E-3</v>
@@ -1425,13 +2581,13 @@
         <f t="shared" si="1"/>
         <v>1.0928368587073465E-2</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="12">
         <f>AVERAGE(D21:I21)</f>
         <v>1.0998365618188094E-2</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="21">
+      <c r="M21" s="13">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="N21">
@@ -1450,11 +2606,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10"/>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="6">
         <f t="shared" ref="D22:I22" si="2">ABS($Q$21*(0.5*ATAN((E8-E7)/$R$21)))</f>
         <v>1.1768686476255541E-2</v>
@@ -1479,18 +2635,18 @@
         <f t="shared" si="2"/>
         <v>1.3869153294734598E-2</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="12">
         <f t="shared" ref="J22:J30" si="3">AVERAGE(D22:I22)</f>
         <v>1.190867419907171E-2</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="20"/>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="6">
         <f t="shared" ref="D23:I23" si="4">ABS($Q$21*(0.5*ATAN((E9-E8)/$R$21)))</f>
         <v>1.1768686476255537E-2</v>
@@ -1515,21 +2671,21 @@
         <f t="shared" si="4"/>
         <v>9.2475363283150026E-3</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="12">
         <f t="shared" si="3"/>
         <v>1.1138416766664216E-2</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="7"/>
       <c r="M23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="20"/>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="16"/>
       <c r="D24" s="6">
         <f t="shared" ref="D24:I24" si="5">ABS($Q$21*(0.5*ATAN((E10-E9)/$R$21)))</f>
         <v>1.1348536255830224E-2</v>
@@ -1554,11 +2710,11 @@
         <f t="shared" si="5"/>
         <v>1.2608931993462958E-2</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="12">
         <f t="shared" si="3"/>
         <v>1.1698652285577449E-2</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="15"/>
       <c r="L24" s="7"/>
       <c r="M24">
         <f>N21*O21/P21/M21</f>
@@ -1569,11 +2725,11 @@
         <v>1807486215.6868634</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="20"/>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="6">
         <f t="shared" ref="D25:I25" si="6">ABS($Q$21*(0.5*ATAN((E11-E10)/$R$21)))</f>
         <v>1.1768686476255539E-2</v>
@@ -1598,18 +2754,18 @@
         <f t="shared" si="6"/>
         <v>1.0508184114850005E-2</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="12">
         <f t="shared" si="3"/>
         <v>1.0998388022655452E-2</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="15"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="16"/>
       <c r="D26" s="6">
         <f t="shared" ref="D26:I26" si="7">ABS($Q$21*(0.5*ATAN((E12-E11)/$R$21)))</f>
         <v>1.0928368587073465E-2</v>
@@ -1634,18 +2790,18 @@
         <f t="shared" si="7"/>
         <v>1.1348536255830224E-2</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="12">
         <f t="shared" si="3"/>
         <v>1.1208480366244639E-2</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="20"/>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="6">
         <f t="shared" ref="D27:I27" si="8">ABS($Q$21*(0.5*ATAN((E13-E12)/$R$21)))</f>
         <v>1.1348536255830224E-2</v>
@@ -1670,18 +2826,18 @@
         <f t="shared" si="8"/>
         <v>1.1348536255830224E-2</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="12">
         <f t="shared" si="3"/>
         <v>1.1208474657611614E-2</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="20"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="6">
         <f t="shared" ref="D28:I28" si="9">ABS($Q$21*(0.5*ATAN((E14-E13)/$R$21)))</f>
         <v>1.0928368587073465E-2</v>
@@ -1706,18 +2862,18 @@
         <f t="shared" si="9"/>
         <v>9.6677673402306048E-3</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="12">
         <f t="shared" si="3"/>
         <v>1.0368101187065734E-2</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="20"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="16"/>
       <c r="D29" s="6">
         <f t="shared" ref="D29:I29" si="10">ABS($Q$21*(0.5*ATAN((E15-E14)/$R$21)))</f>
         <v>1.1348536255830228E-2</v>
@@ -1742,18 +2898,18 @@
         <f t="shared" si="10"/>
         <v>1.2608931993462958E-2</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="12">
         <f t="shared" si="3"/>
         <v>1.148856565062129E-2</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="20"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="6">
         <f t="shared" ref="D30:I30" si="11">ABS($Q$21*(0.5*ATAN((E16-E15)/$R$21)))</f>
         <v>1.1768686476255532E-2</v>
@@ -1778,329 +2934,449 @@
         <f t="shared" si="11"/>
         <v>1.0087983484179502E-2</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="12">
         <f t="shared" si="3"/>
         <v>1.0998368203734494E-2</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
+      <c r="K30" s="15"/>
+      <c r="L30" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="14">
+      <c r="M30" s="19">
         <f>_xlfn.STDEV.P(J21:J30)</f>
         <v>4.064570617533876E-4</v>
       </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D32" s="9">
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="J31" s="14"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9">
         <f>D21</f>
         <v>9.6677673402305979E-3</v>
       </c>
-      <c r="E32" s="9">
-        <f t="shared" ref="E32:I32" si="12">E21</f>
+      <c r="E34" s="9">
+        <f>E21</f>
         <v>1.2188818603645499E-2</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F34" s="9">
+        <f>F21</f>
+        <v>1.1768686476255532E-2</v>
+      </c>
+      <c r="G34" s="9">
+        <f>G21</f>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <f>H21</f>
+        <v>1.0508184114850005E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <f>I21</f>
+        <v>1.0928368587073465E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <f>AVERAGE(D34:I34)</f>
+        <v>1.0998365618188094E-2</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="9">
+        <f>D22+D34</f>
+        <v>2.1436453816486137E-2</v>
+      </c>
+      <c r="E35" s="9">
+        <f>E22+E34</f>
+        <v>2.3537354859475723E-2</v>
+      </c>
+      <c r="F35" s="9">
+        <f>F22+F34</f>
+        <v>2.2697055063329002E-2</v>
+      </c>
+      <c r="G35" s="9">
+        <f>G22+G34</f>
+        <v>2.3537300580536429E-2</v>
+      </c>
+      <c r="H35" s="9">
+        <f>H22+H34</f>
+        <v>2.1436552701923475E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <f>I22+I34</f>
+        <v>2.4797521881808064E-2</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" ref="J35:J43" si="12">AVERAGE(D35:I35)</f>
+        <v>2.2907039817259806E-2</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="9">
+        <f>D23+D35</f>
+        <v>3.3205140292741672E-2</v>
+      </c>
+      <c r="E36" s="9">
+        <f>E23+E35</f>
+        <v>3.5306041335731259E-2</v>
+      </c>
+      <c r="F36" s="9">
+        <f>F23+F35</f>
+        <v>3.4045591319159227E-2</v>
+      </c>
+      <c r="G36" s="9">
+        <f>G23+G35</f>
+        <v>3.4465669167609896E-2</v>
+      </c>
+      <c r="H36" s="9">
+        <f>H23+H35</f>
+        <v>3.3205239178179011E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f>I23+I35</f>
+        <v>3.4045058210123068E-2</v>
+      </c>
+      <c r="J36" s="10">
         <f t="shared" si="12"/>
-        <v>1.1768686476255532E-2</v>
-      </c>
-      <c r="G32" s="9">
+        <v>3.4045456583924029E-2</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="9">
+        <f>D24+D36</f>
+        <v>4.4553676548571897E-2</v>
+      </c>
+      <c r="E37" s="9">
+        <f>E24+E36</f>
+        <v>4.6654577591561483E-2</v>
+      </c>
+      <c r="F37" s="9">
+        <f>F24+F36</f>
+        <v>4.5814277795414762E-2</v>
+      </c>
+      <c r="G37" s="9">
+        <f>G24+G36</f>
+        <v>4.581420542344012E-2</v>
+      </c>
+      <c r="H37" s="9">
+        <f>H24+H36</f>
+        <v>4.4973925654434546E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <f>I24+I36</f>
+        <v>4.6653990203586029E-2</v>
+      </c>
+      <c r="J37" s="10">
         <f t="shared" si="12"/>
-        <v>1.0928368587073465E-2</v>
-      </c>
-      <c r="H32" s="9">
+        <v>4.5744108869501469E-2</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="9">
+        <f>D25+D37</f>
+        <v>5.6322363024827432E-2</v>
+      </c>
+      <c r="E38" s="9">
+        <f>E25+E37</f>
+        <v>5.758294617863495E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <f>F25+F37</f>
+        <v>5.6742646382488229E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <f>G25+G37</f>
+        <v>5.7162741679270344E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <f>H25+H37</f>
+        <v>5.5482109769284554E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <f>I25+I37</f>
+        <v>5.7162174318436038E-2</v>
+      </c>
+      <c r="J38" s="10">
         <f t="shared" si="12"/>
-        <v>1.0508184114850005E-2</v>
-      </c>
-      <c r="I32" s="9">
+        <v>5.6742496892156935E-2</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="9">
+        <f>D26+D38</f>
+        <v>6.7250731611900899E-2</v>
+      </c>
+      <c r="E39" s="9">
+        <f>E26+E38</f>
+        <v>6.8931482434465174E-2</v>
+      </c>
+      <c r="F39" s="9">
+        <f>F26+F38</f>
+        <v>6.8091182638318454E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <f>G26+G38</f>
+        <v>6.8091110266343804E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f>H26+H38</f>
+        <v>6.6830646025114779E-2</v>
+      </c>
+      <c r="I39" s="9">
+        <f>I26+I38</f>
+        <v>6.8510710574266262E-2</v>
+      </c>
+      <c r="J39" s="10">
         <f t="shared" si="12"/>
-        <v>1.0928368587073465E-2</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="9">
-        <f>D22+D32</f>
-        <v>2.1436453816486137E-2</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" ref="E33:I40" si="13">E22+E32</f>
-        <v>2.3537354859475723E-2</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="13"/>
-        <v>2.2697055063329002E-2</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="13"/>
-        <v>2.3537300580536429E-2</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="13"/>
-        <v>2.1436552701923475E-2</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="13"/>
-        <v>2.4797521881808064E-2</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="9">
-        <f t="shared" ref="D34:D40" si="14">D23+D33</f>
-        <v>3.3205140292741672E-2</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="13"/>
-        <v>3.5306041335731259E-2</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="13"/>
-        <v>3.4045591319159227E-2</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="13"/>
-        <v>3.4465669167609896E-2</v>
-      </c>
-      <c r="H34" s="9">
-        <f t="shared" si="13"/>
-        <v>3.3205239178179011E-2</v>
-      </c>
-      <c r="I34" s="9">
-        <f t="shared" si="13"/>
-        <v>3.4045058210123068E-2</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35" s="9">
-        <f t="shared" si="14"/>
-        <v>4.4553676548571897E-2</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="13"/>
-        <v>4.6654577591561483E-2</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="13"/>
-        <v>4.5814277795414762E-2</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="13"/>
-        <v>4.581420542344012E-2</v>
-      </c>
-      <c r="H35" s="9">
-        <f t="shared" si="13"/>
-        <v>4.4973925654434546E-2</v>
-      </c>
-      <c r="I35" s="9">
-        <f t="shared" si="13"/>
-        <v>4.6653990203586029E-2</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="12"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36" s="9">
-        <f t="shared" si="14"/>
-        <v>5.6322363024827432E-2</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="13"/>
-        <v>5.758294617863495E-2</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="13"/>
-        <v>5.6742646382488229E-2</v>
-      </c>
-      <c r="G36" s="9">
-        <f t="shared" si="13"/>
-        <v>5.7162741679270344E-2</v>
-      </c>
-      <c r="H36" s="9">
-        <f t="shared" si="13"/>
-        <v>5.5482109769284554E-2</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="13"/>
-        <v>5.7162174318436038E-2</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="9">
-        <f t="shared" si="14"/>
-        <v>6.7250731611900899E-2</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8931482434465174E-2</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8091182638318454E-2</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8091110266343804E-2</v>
-      </c>
-      <c r="H37" s="9">
-        <f t="shared" si="13"/>
-        <v>6.6830646025114779E-2</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8510710574266262E-2</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="9">
-        <f t="shared" si="14"/>
+        <v>6.795097725840156E-2</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9">
+        <f>D27+D39</f>
         <v>7.8599267867731124E-2</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="13"/>
+      <c r="E40" s="9">
+        <f>E27+E39</f>
         <v>8.0280018690295399E-2</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="13"/>
+      <c r="F40" s="9">
+        <f>F27+F39</f>
         <v>7.9019551225391921E-2</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="13"/>
+      <c r="G40" s="9">
+        <f>G27+G39</f>
         <v>7.8599294381193813E-2</v>
       </c>
-      <c r="H38" s="9">
-        <f t="shared" si="13"/>
+      <c r="H40" s="9">
+        <f>H27+H39</f>
         <v>7.8599332501370314E-2</v>
       </c>
-      <c r="I38" s="9">
-        <f t="shared" si="13"/>
+      <c r="I40" s="9">
+        <f>I27+I39</f>
         <v>7.9859246830096486E-2</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="9">
-        <f t="shared" si="14"/>
+      <c r="J40" s="10">
+        <f t="shared" si="12"/>
+        <v>7.9159451916013174E-2</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="9">
+        <f>D28+D40</f>
         <v>8.9527636454804591E-2</v>
       </c>
-      <c r="E39" s="9">
-        <f t="shared" si="13"/>
+      <c r="E41" s="9">
+        <f>E28+E40</f>
         <v>9.0368002174474896E-2</v>
       </c>
-      <c r="F39" s="9">
-        <f t="shared" si="13"/>
+      <c r="F41" s="9">
+        <f>F28+F40</f>
         <v>9.0368087481222145E-2</v>
       </c>
-      <c r="G39" s="9">
-        <f t="shared" si="13"/>
+      <c r="G41" s="9">
+        <f>G28+G40</f>
         <v>8.9107478496043821E-2</v>
       </c>
-      <c r="H39" s="9">
-        <f t="shared" si="13"/>
+      <c r="H41" s="9">
+        <f>H28+H40</f>
         <v>8.8267099841600916E-2</v>
       </c>
-      <c r="I39" s="9">
-        <f t="shared" si="13"/>
+      <c r="I41" s="9">
+        <f>I28+I40</f>
         <v>8.9527014170327088E-2</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="9">
-        <f t="shared" si="14"/>
+      <c r="J41" s="10">
+        <f t="shared" si="12"/>
+        <v>8.9527553103078916E-2</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="9">
+        <f>D29+D41</f>
         <v>0.10087617271063481</v>
       </c>
-      <c r="E40" s="9">
-        <f t="shared" si="13"/>
+      <c r="E42" s="9">
+        <f>E29+E41</f>
         <v>0.10129637076154836</v>
       </c>
-      <c r="F40" s="9">
-        <f t="shared" si="13"/>
+      <c r="F42" s="9">
+        <f>F29+F41</f>
         <v>0.10087627159607215</v>
       </c>
-      <c r="G40" s="9">
-        <f t="shared" si="13"/>
+      <c r="G42" s="9">
+        <f>G29+G41</f>
         <v>0.10087616497229936</v>
       </c>
-      <c r="H40" s="9">
-        <f t="shared" si="13"/>
+      <c r="H42" s="9">
+        <f>H29+H41</f>
         <v>0.10003578631785645</v>
       </c>
-      <c r="I40" s="9">
-        <f t="shared" si="13"/>
+      <c r="I42" s="9">
+        <f>I29+I41</f>
         <v>0.10213594616379004</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="9">
-        <f>D30+D40</f>
+      <c r="J42" s="10">
+        <f t="shared" si="12"/>
+        <v>0.1010161187537002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="9">
+        <f>D30+D42</f>
         <v>0.11264485918689035</v>
       </c>
-      <c r="E41" s="9">
-        <f t="shared" ref="E41:I41" si="15">E30+E40</f>
+      <c r="E43" s="9">
+        <f>E30+E42</f>
         <v>0.11222473934862183</v>
       </c>
-      <c r="F41" s="9">
-        <f t="shared" si="15"/>
+      <c r="F43" s="9">
+        <f>F30+F42</f>
         <v>0.11180464018314562</v>
       </c>
-      <c r="G41" s="9">
-        <f t="shared" si="15"/>
+      <c r="G43" s="9">
+        <f>G30+G42</f>
         <v>0.11096414845647885</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="15"/>
+      <c r="H43" s="9">
+        <f>H30+H42</f>
         <v>0.11222460492150195</v>
       </c>
-      <c r="I41" s="9">
-        <f t="shared" si="15"/>
+      <c r="I43" s="9">
+        <f>I30+I42</f>
         <v>0.11222392964796954</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="J43" s="10">
+        <f t="shared" si="12"/>
+        <v>0.1120144869574347</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D46" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="49">
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -2108,47 +3384,32 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K20"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2160,36 +3421,36 @@
       <selection activeCell="B3" sqref="B3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
@@ -2208,14 +3469,14 @@
       <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2225,11 +3486,11 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2239,11 +3500,11 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2253,11 +3514,11 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2267,11 +3528,11 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2281,11 +3542,11 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2295,11 +3556,11 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2309,11 +3570,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2323,11 +3584,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2337,11 +3598,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
